--- a/Code/Results/Cases/Case_5_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_169/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043436441692385</v>
+        <v>1.070955003893757</v>
       </c>
       <c r="D2">
-        <v>1.060540905511512</v>
+        <v>1.07606047135903</v>
       </c>
       <c r="E2">
-        <v>1.041525449395191</v>
+        <v>1.065108339823105</v>
       </c>
       <c r="F2">
-        <v>1.065206446324579</v>
+        <v>1.084965789169289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071783461836828</v>
+        <v>1.062660197921191</v>
       </c>
       <c r="J2">
-        <v>1.064391292696106</v>
+        <v>1.07588204269338</v>
       </c>
       <c r="K2">
-        <v>1.071216640622032</v>
+        <v>1.078745398953191</v>
       </c>
       <c r="L2">
-        <v>1.052435064302138</v>
+        <v>1.067822468811517</v>
       </c>
       <c r="M2">
-        <v>1.075826379582321</v>
+        <v>1.087627441953887</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.050542505489646</v>
+        <v>1.072325022927828</v>
       </c>
       <c r="D3">
-        <v>1.0664033396698</v>
+        <v>1.077198851535018</v>
       </c>
       <c r="E3">
-        <v>1.047721443633969</v>
+        <v>1.066316203070301</v>
       </c>
       <c r="F3">
-        <v>1.071596246040594</v>
+        <v>1.086236525146257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075082583374926</v>
+        <v>1.063201114102706</v>
       </c>
       <c r="J3">
-        <v>1.069744134820995</v>
+        <v>1.076907821865162</v>
       </c>
       <c r="K3">
-        <v>1.076251635967407</v>
+        <v>1.07970042639513</v>
       </c>
       <c r="L3">
-        <v>1.057778068029986</v>
+        <v>1.068844685466319</v>
       </c>
       <c r="M3">
-        <v>1.081388216760965</v>
+        <v>1.088716194643674</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.055005340575295</v>
+        <v>1.073210065510805</v>
       </c>
       <c r="D4">
-        <v>1.070087773902178</v>
+        <v>1.077934222002555</v>
       </c>
       <c r="E4">
-        <v>1.051611740012679</v>
+        <v>1.067095971961824</v>
       </c>
       <c r="F4">
-        <v>1.075615172439579</v>
+        <v>1.087057808314186</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077142899902821</v>
+        <v>1.063549131949797</v>
       </c>
       <c r="J4">
-        <v>1.073099493134056</v>
+        <v>1.077569620331844</v>
       </c>
       <c r="K4">
-        <v>1.079407955121899</v>
+        <v>1.08031656859472</v>
       </c>
       <c r="L4">
-        <v>1.061124742367304</v>
+        <v>1.069503760708312</v>
       </c>
       <c r="M4">
-        <v>1.084879235414721</v>
+        <v>1.089419159242752</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.056850861495825</v>
+        <v>1.073581795873476</v>
       </c>
       <c r="D5">
-        <v>1.071611963266377</v>
+        <v>1.078243079671593</v>
       </c>
       <c r="E5">
-        <v>1.053220208360396</v>
+        <v>1.067423361206657</v>
       </c>
       <c r="F5">
-        <v>1.077278474208079</v>
+        <v>1.087402848627433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.077992071138247</v>
+        <v>1.063694964593371</v>
       </c>
       <c r="J5">
-        <v>1.074485460814463</v>
+        <v>1.077847378251784</v>
       </c>
       <c r="K5">
-        <v>1.080711743632682</v>
+        <v>1.080575162022376</v>
       </c>
       <c r="L5">
-        <v>1.062506516391126</v>
+        <v>1.069780274036463</v>
       </c>
       <c r="M5">
-        <v>1.086322342932236</v>
+        <v>1.089714323291804</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.057158982621584</v>
+        <v>1.073644191180412</v>
       </c>
       <c r="D6">
-        <v>1.071866467120354</v>
+        <v>1.078294921227861</v>
       </c>
       <c r="E6">
-        <v>1.053488733548582</v>
+        <v>1.067478306494346</v>
       </c>
       <c r="F6">
-        <v>1.077556250182369</v>
+        <v>1.087460769228625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078133677696378</v>
+        <v>1.063719422812495</v>
       </c>
       <c r="J6">
-        <v>1.07471676274172</v>
+        <v>1.077893988058016</v>
       </c>
       <c r="K6">
-        <v>1.08092933261091</v>
+        <v>1.080618555736188</v>
       </c>
       <c r="L6">
-        <v>1.062737082683796</v>
+        <v>1.069826669030598</v>
       </c>
       <c r="M6">
-        <v>1.086563245414008</v>
+        <v>1.089763861515427</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.055030118787248</v>
+        <v>1.073215033924773</v>
       </c>
       <c r="D7">
-        <v>1.070108235742959</v>
+        <v>1.077938350116273</v>
       </c>
       <c r="E7">
-        <v>1.05163333674085</v>
+        <v>1.067100348218803</v>
       </c>
       <c r="F7">
-        <v>1.075637498896983</v>
+        <v>1.087062419646488</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077154312258639</v>
+        <v>1.063551082432213</v>
       </c>
       <c r="J7">
-        <v>1.073118107618841</v>
+        <v>1.07757333355714</v>
       </c>
       <c r="K7">
-        <v>1.07942546575649</v>
+        <v>1.080320025628202</v>
       </c>
       <c r="L7">
-        <v>1.061143302934154</v>
+        <v>1.069507457694837</v>
       </c>
       <c r="M7">
-        <v>1.084898612971433</v>
+        <v>1.089423104657352</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045867061604435</v>
+        <v>1.071418312319542</v>
       </c>
       <c r="D8">
-        <v>1.062545541136829</v>
+        <v>1.076445451072666</v>
       </c>
       <c r="E8">
-        <v>1.043644955124408</v>
+        <v>1.065516918566541</v>
       </c>
       <c r="F8">
-        <v>1.067390772434293</v>
+        <v>1.085395443549038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.072914351722911</v>
+        <v>1.062843416922727</v>
       </c>
       <c r="J8">
-        <v>1.066223548709644</v>
+        <v>1.076229115886993</v>
       </c>
       <c r="K8">
-        <v>1.072940049609775</v>
+        <v>1.079068535129871</v>
       </c>
       <c r="L8">
-        <v>1.05426448276167</v>
+        <v>1.068168424792614</v>
       </c>
       <c r="M8">
-        <v>1.077729181804694</v>
+        <v>1.08799571066357</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.028598922518591</v>
+        <v>1.068240877960936</v>
       </c>
       <c r="D9">
-        <v>1.048318458826735</v>
+        <v>1.07380510375021</v>
       </c>
       <c r="E9">
-        <v>1.028585300379113</v>
+        <v>1.062712699032933</v>
       </c>
       <c r="F9">
-        <v>1.051901331091809</v>
+        <v>1.082450397870893</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064831561909069</v>
+        <v>1.061581052946451</v>
       </c>
       <c r="J9">
-        <v>1.053180682395712</v>
+        <v>1.073845301376757</v>
       </c>
       <c r="K9">
-        <v>1.06067339479007</v>
+        <v>1.076849095439671</v>
       </c>
       <c r="L9">
-        <v>1.041231021227511</v>
+        <v>1.065790530059978</v>
       </c>
       <c r="M9">
-        <v>1.064204951451996</v>
+        <v>1.085468539376886</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016198254346121</v>
+        <v>1.066114562561245</v>
       </c>
       <c r="D10">
-        <v>1.038124585860238</v>
+        <v>1.072038104032135</v>
       </c>
       <c r="E10">
-        <v>1.017771402765774</v>
+        <v>1.060833469181776</v>
       </c>
       <c r="F10">
-        <v>1.04081923260209</v>
+        <v>1.080481618091812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058967176795946</v>
+        <v>1.060728979362916</v>
       </c>
       <c r="J10">
-        <v>1.043783617309296</v>
+        <v>1.072245633443682</v>
       </c>
       <c r="K10">
-        <v>1.051837995519406</v>
+        <v>1.075359698263003</v>
       </c>
       <c r="L10">
-        <v>1.03182703504481</v>
+        <v>1.064192625556582</v>
       </c>
       <c r="M10">
-        <v>1.054488622983148</v>
+        <v>1.083775470831689</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.010582785774016</v>
+        <v>1.065191857140124</v>
       </c>
       <c r="D11">
-        <v>1.033515369494851</v>
+        <v>1.071271308054801</v>
       </c>
       <c r="E11">
-        <v>1.012875805160217</v>
+        <v>1.060017355716843</v>
       </c>
       <c r="F11">
-        <v>1.035812173700466</v>
+        <v>1.0796277643609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056298102685802</v>
+        <v>1.060357494890998</v>
       </c>
       <c r="J11">
-        <v>1.039521840660363</v>
+        <v>1.071550415009402</v>
       </c>
       <c r="K11">
-        <v>1.047831752902213</v>
+        <v>1.074712398066149</v>
       </c>
       <c r="L11">
-        <v>1.027558920168991</v>
+        <v>1.063497648373693</v>
       </c>
       <c r="M11">
-        <v>1.050088915049606</v>
+        <v>1.083040326337599</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008456558313429</v>
+        <v>1.064848815960367</v>
       </c>
       <c r="D12">
-        <v>1.031771331323768</v>
+        <v>1.070986229187464</v>
       </c>
       <c r="E12">
-        <v>1.011022456795904</v>
+        <v>1.059713848654372</v>
       </c>
       <c r="F12">
-        <v>1.033918158282748</v>
+        <v>1.079310395122609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055285540805468</v>
+        <v>1.060219125481587</v>
       </c>
       <c r="J12">
-        <v>1.037907283927836</v>
+        <v>1.071291790966704</v>
       </c>
       <c r="K12">
-        <v>1.046314147073202</v>
+        <v>1.074471599150723</v>
       </c>
       <c r="L12">
-        <v>1.025941487426419</v>
+        <v>1.063239035076239</v>
       </c>
       <c r="M12">
-        <v>1.048423165268472</v>
+        <v>1.082766949878216</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008914529421307</v>
+        <v>1.064922413481802</v>
       </c>
       <c r="D13">
-        <v>1.032146926250959</v>
+        <v>1.071047391273714</v>
       </c>
       <c r="E13">
-        <v>1.011421636251163</v>
+        <v>1.059778968623903</v>
       </c>
       <c r="F13">
-        <v>1.034326027136869</v>
+        <v>1.079378481494882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055503724667575</v>
+        <v>1.060248823598408</v>
       </c>
       <c r="J13">
-        <v>1.038255084238696</v>
+        <v>1.071347284393501</v>
       </c>
       <c r="K13">
-        <v>1.046641055852157</v>
+        <v>1.074523267834076</v>
       </c>
       <c r="L13">
-        <v>1.02628992859219</v>
+        <v>1.063294529773325</v>
       </c>
       <c r="M13">
-        <v>1.048781944909734</v>
+        <v>1.082825604219767</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.010407876671629</v>
+        <v>1.065163507560497</v>
       </c>
       <c r="D14">
-        <v>1.033371875410206</v>
+        <v>1.071247748614001</v>
       </c>
       <c r="E14">
-        <v>1.012723336874263</v>
+        <v>1.059992275235784</v>
       </c>
       <c r="F14">
-        <v>1.035656328670349</v>
+        <v>1.079601534836914</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056214845751878</v>
+        <v>1.06034606507555</v>
       </c>
       <c r="J14">
-        <v>1.039389040453282</v>
+        <v>1.071529045032601</v>
       </c>
       <c r="K14">
-        <v>1.047706924053221</v>
+        <v>1.074692500982908</v>
       </c>
       <c r="L14">
-        <v>1.027425892991883</v>
+        <v>1.06347628089622</v>
       </c>
       <c r="M14">
-        <v>1.049951882410912</v>
+        <v>1.083017735331014</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.011322514101365</v>
+        <v>1.065312012639562</v>
       </c>
       <c r="D15">
-        <v>1.034122285946258</v>
+        <v>1.071371161210006</v>
       </c>
       <c r="E15">
-        <v>1.013520639671735</v>
+        <v>1.060123651763262</v>
       </c>
       <c r="F15">
-        <v>1.036471351840168</v>
+        <v>1.079738937369988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05665013543542</v>
+        <v>1.060405927838091</v>
       </c>
       <c r="J15">
-        <v>1.04008344580826</v>
+        <v>1.071640982051737</v>
       </c>
       <c r="K15">
-        <v>1.048359653531624</v>
+        <v>1.074796722885693</v>
       </c>
       <c r="L15">
-        <v>1.028121465910051</v>
+        <v>1.063588201589801</v>
       </c>
       <c r="M15">
-        <v>1.050668462252705</v>
+        <v>1.083136072269438</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.0165654692018</v>
+        <v>1.06617575678823</v>
       </c>
       <c r="D16">
-        <v>1.038426153519673</v>
+        <v>1.072088958048185</v>
       </c>
       <c r="E16">
-        <v>1.01809157911169</v>
+        <v>1.060887580946484</v>
       </c>
       <c r="F16">
-        <v>1.041146907384206</v>
+        <v>1.080538256426921</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059141444080666</v>
+        <v>1.060753579959093</v>
       </c>
       <c r="J16">
-        <v>1.044062182761755</v>
+        <v>1.072291718563556</v>
       </c>
       <c r="K16">
-        <v>1.052099876772596</v>
+        <v>1.075402606844057</v>
       </c>
       <c r="L16">
-        <v>1.03210594909663</v>
+        <v>1.06423868362709</v>
       </c>
       <c r="M16">
-        <v>1.05477634852234</v>
+        <v>1.083824216624742</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019786101687123</v>
+        <v>1.066717020926362</v>
       </c>
       <c r="D17">
-        <v>1.041071829721836</v>
+        <v>1.072538761295078</v>
       </c>
       <c r="E17">
-        <v>1.02089982482561</v>
+        <v>1.061366127927159</v>
       </c>
       <c r="F17">
-        <v>1.044022048430864</v>
+        <v>1.081039280234531</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060668331946177</v>
+        <v>1.060970973021195</v>
       </c>
       <c r="J17">
-        <v>1.046504603279303</v>
+        <v>1.072699221288857</v>
       </c>
       <c r="K17">
-        <v>1.05439610598044</v>
+        <v>1.075782020742053</v>
       </c>
       <c r="L17">
-        <v>1.03455106603687</v>
+        <v>1.064645886608839</v>
       </c>
       <c r="M17">
-        <v>1.057299860065357</v>
+        <v>1.0842553228807</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.021641171509011</v>
+        <v>1.067032538972875</v>
       </c>
       <c r="D18">
-        <v>1.042596368779161</v>
+        <v>1.072800962816099</v>
       </c>
       <c r="E18">
-        <v>1.022517478343892</v>
+        <v>1.061645025683792</v>
       </c>
       <c r="F18">
-        <v>1.045679169142057</v>
+        <v>1.081331388203751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061546542300068</v>
+        <v>1.061097530736168</v>
       </c>
       <c r="J18">
-        <v>1.047910815290788</v>
+        <v>1.072936664916769</v>
       </c>
       <c r="K18">
-        <v>1.055718223181988</v>
+        <v>1.076003097021784</v>
       </c>
       <c r="L18">
-        <v>1.035958529842121</v>
+        <v>1.064883105031118</v>
       </c>
       <c r="M18">
-        <v>1.058753401580719</v>
+        <v>1.084506583918807</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022269819094568</v>
+        <v>1.067140090097916</v>
       </c>
       <c r="D19">
-        <v>1.043113110675542</v>
+        <v>1.07289033959199</v>
       </c>
       <c r="E19">
-        <v>1.023065686836321</v>
+        <v>1.06174008369116</v>
       </c>
       <c r="F19">
-        <v>1.046240910041149</v>
+        <v>1.081430967469712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061843933436401</v>
+        <v>1.061140642361984</v>
       </c>
       <c r="J19">
-        <v>1.048387247650419</v>
+        <v>1.07301758553155</v>
       </c>
       <c r="K19">
-        <v>1.05616617572555</v>
+        <v>1.076078439556293</v>
       </c>
       <c r="L19">
-        <v>1.036435335161582</v>
+        <v>1.064963940324808</v>
       </c>
       <c r="M19">
-        <v>1.059245977439558</v>
+        <v>1.084592224365453</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.019443009510146</v>
+        <v>1.066658968338158</v>
       </c>
       <c r="D20">
-        <v>1.04078991968679</v>
+        <v>1.072490518366787</v>
       </c>
       <c r="E20">
-        <v>1.020600651123415</v>
+        <v>1.061314808265241</v>
       </c>
       <c r="F20">
-        <v>1.043715650902903</v>
+        <v>1.080985538687892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060505804958965</v>
+        <v>1.060947674063613</v>
       </c>
       <c r="J20">
-        <v>1.046244476573418</v>
+        <v>1.072655525570932</v>
       </c>
       <c r="K20">
-        <v>1.054151541328638</v>
+        <v>1.075741336989925</v>
       </c>
       <c r="L20">
-        <v>1.034290683369047</v>
+        <v>1.064602228263493</v>
       </c>
       <c r="M20">
-        <v>1.057031029952478</v>
+        <v>1.084209089567401</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009969268088993</v>
+        <v>1.065092519905397</v>
       </c>
       <c r="D21">
-        <v>1.033012063849915</v>
+        <v>1.071188755499872</v>
       </c>
       <c r="E21">
-        <v>1.012341007082328</v>
+        <v>1.059929471915464</v>
       </c>
       <c r="F21">
-        <v>1.035265556056523</v>
+        <v>1.07953585702909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05600603647237</v>
+        <v>1.060317440498178</v>
       </c>
       <c r="J21">
-        <v>1.039056011720596</v>
+        <v>1.071475531837091</v>
       </c>
       <c r="K21">
-        <v>1.04739388780909</v>
+        <v>1.074642676094226</v>
       </c>
       <c r="L21">
-        <v>1.027092287466122</v>
+        <v>1.063422772683249</v>
       </c>
       <c r="M21">
-        <v>1.049608257007188</v>
+        <v>1.082961166137733</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00377700358003</v>
+        <v>1.064105849991593</v>
       </c>
       <c r="D22">
-        <v>1.027935283204805</v>
+        <v>1.070368797687291</v>
       </c>
       <c r="E22">
-        <v>1.006944177686462</v>
+        <v>1.059056334123167</v>
       </c>
       <c r="F22">
-        <v>1.029753252912137</v>
+        <v>1.078623167075516</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053053511997762</v>
+        <v>1.059918966976646</v>
       </c>
       <c r="J22">
-        <v>1.034352310528176</v>
+        <v>1.070731369727903</v>
       </c>
       <c r="K22">
-        <v>1.042972932411235</v>
+        <v>1.073949802812788</v>
       </c>
       <c r="L22">
-        <v>1.022379312934293</v>
+        <v>1.06267849244174</v>
       </c>
       <c r="M22">
-        <v>1.044757470280497</v>
+        <v>1.082174744746366</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.007083258845492</v>
+        <v>1.06462907370791</v>
       </c>
       <c r="D23">
-        <v>1.030645235418491</v>
+        <v>1.07080361564111</v>
       </c>
       <c r="E23">
-        <v>1.009825507969558</v>
+        <v>1.059519404271737</v>
       </c>
       <c r="F23">
-        <v>1.032695381010588</v>
+        <v>1.079107118631064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054631001921478</v>
+        <v>1.060130416925207</v>
       </c>
       <c r="J23">
-        <v>1.036864225765486</v>
+        <v>1.071126079601026</v>
       </c>
       <c r="K23">
-        <v>1.045333765655091</v>
+        <v>1.07431730893981</v>
       </c>
       <c r="L23">
-        <v>1.024896438253995</v>
+        <v>1.063073308340393</v>
       </c>
       <c r="M23">
-        <v>1.047347338130563</v>
+        <v>1.082591814258137</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.019598110372295</v>
+        <v>1.06668520039716</v>
       </c>
       <c r="D24">
-        <v>1.040917360101608</v>
+        <v>1.072512317766928</v>
       </c>
       <c r="E24">
-        <v>1.020735897511164</v>
+        <v>1.061337998123501</v>
       </c>
       <c r="F24">
-        <v>1.043854160043836</v>
+        <v>1.081009822583139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060579282097855</v>
+        <v>1.060958202613276</v>
       </c>
       <c r="J24">
-        <v>1.046362073337687</v>
+        <v>1.072675270544139</v>
       </c>
       <c r="K24">
-        <v>1.054262102649508</v>
+        <v>1.075759720934846</v>
       </c>
       <c r="L24">
-        <v>1.034408396781918</v>
+        <v>1.064621956505238</v>
       </c>
       <c r="M24">
-        <v>1.057152559317177</v>
+        <v>1.084229981016673</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.033209003734891</v>
+        <v>1.069063707975155</v>
       </c>
       <c r="D25">
-        <v>1.052113209830634</v>
+        <v>1.074488870017843</v>
       </c>
       <c r="E25">
-        <v>1.032605979658788</v>
+        <v>1.063439351369603</v>
       </c>
       <c r="F25">
-        <v>1.056029989574354</v>
+        <v>1.083212695830281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066999849995613</v>
+        <v>1.061909242346292</v>
       </c>
       <c r="J25">
-        <v>1.056668205040448</v>
+        <v>1.074463396906063</v>
       </c>
       <c r="K25">
-        <v>1.063953024131311</v>
+        <v>1.077424577174966</v>
       </c>
       <c r="L25">
-        <v>1.04471837001265</v>
+        <v>1.066407478462817</v>
       </c>
       <c r="M25">
-        <v>1.067816601496061</v>
+        <v>1.086123314369631</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_169/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.070955003893757</v>
+        <v>1.043436441692388</v>
       </c>
       <c r="D2">
-        <v>1.07606047135903</v>
+        <v>1.060540905511514</v>
       </c>
       <c r="E2">
-        <v>1.065108339823105</v>
+        <v>1.041525449395194</v>
       </c>
       <c r="F2">
-        <v>1.084965789169289</v>
+        <v>1.065206446324582</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062660197921191</v>
+        <v>1.07178346183683</v>
       </c>
       <c r="J2">
-        <v>1.07588204269338</v>
+        <v>1.064391292696108</v>
       </c>
       <c r="K2">
-        <v>1.078745398953191</v>
+        <v>1.071216640622034</v>
       </c>
       <c r="L2">
-        <v>1.067822468811517</v>
+        <v>1.05243506430214</v>
       </c>
       <c r="M2">
-        <v>1.087627441953887</v>
+        <v>1.075826379582323</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072325022927828</v>
+        <v>1.050542505489645</v>
       </c>
       <c r="D3">
-        <v>1.077198851535018</v>
+        <v>1.0664033396698</v>
       </c>
       <c r="E3">
-        <v>1.066316203070301</v>
+        <v>1.047721443633968</v>
       </c>
       <c r="F3">
-        <v>1.086236525146257</v>
+        <v>1.071596246040593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063201114102706</v>
+        <v>1.075082583374925</v>
       </c>
       <c r="J3">
-        <v>1.076907821865162</v>
+        <v>1.069744134820994</v>
       </c>
       <c r="K3">
-        <v>1.07970042639513</v>
+        <v>1.076251635967406</v>
       </c>
       <c r="L3">
-        <v>1.068844685466319</v>
+        <v>1.057778068029985</v>
       </c>
       <c r="M3">
-        <v>1.088716194643674</v>
+        <v>1.081388216760965</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073210065510805</v>
+        <v>1.055005340575294</v>
       </c>
       <c r="D4">
-        <v>1.077934222002555</v>
+        <v>1.070087773902178</v>
       </c>
       <c r="E4">
-        <v>1.067095971961824</v>
+        <v>1.051611740012678</v>
       </c>
       <c r="F4">
-        <v>1.087057808314186</v>
+        <v>1.075615172439579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063549131949797</v>
+        <v>1.07714289990282</v>
       </c>
       <c r="J4">
-        <v>1.077569620331844</v>
+        <v>1.073099493134055</v>
       </c>
       <c r="K4">
-        <v>1.08031656859472</v>
+        <v>1.079407955121898</v>
       </c>
       <c r="L4">
-        <v>1.069503760708312</v>
+        <v>1.061124742367303</v>
       </c>
       <c r="M4">
-        <v>1.089419159242752</v>
+        <v>1.084879235414721</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073581795873476</v>
+        <v>1.056850861495824</v>
       </c>
       <c r="D5">
-        <v>1.078243079671593</v>
+        <v>1.071611963266375</v>
       </c>
       <c r="E5">
-        <v>1.067423361206657</v>
+        <v>1.053220208360395</v>
       </c>
       <c r="F5">
-        <v>1.087402848627433</v>
+        <v>1.077278474208077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063694964593371</v>
+        <v>1.077992071138246</v>
       </c>
       <c r="J5">
-        <v>1.077847378251784</v>
+        <v>1.074485460814462</v>
       </c>
       <c r="K5">
-        <v>1.080575162022376</v>
+        <v>1.08071174363268</v>
       </c>
       <c r="L5">
-        <v>1.069780274036463</v>
+        <v>1.062506516391125</v>
       </c>
       <c r="M5">
-        <v>1.089714323291804</v>
+        <v>1.086322342932235</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073644191180412</v>
+        <v>1.057158982621583</v>
       </c>
       <c r="D6">
-        <v>1.078294921227861</v>
+        <v>1.071866467120354</v>
       </c>
       <c r="E6">
-        <v>1.067478306494346</v>
+        <v>1.053488733548581</v>
       </c>
       <c r="F6">
-        <v>1.087460769228625</v>
+        <v>1.077556250182368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063719422812495</v>
+        <v>1.078133677696377</v>
       </c>
       <c r="J6">
-        <v>1.077893988058016</v>
+        <v>1.074716762741719</v>
       </c>
       <c r="K6">
-        <v>1.080618555736188</v>
+        <v>1.08092933261091</v>
       </c>
       <c r="L6">
-        <v>1.069826669030598</v>
+        <v>1.062737082683795</v>
       </c>
       <c r="M6">
-        <v>1.089763861515427</v>
+        <v>1.086563245414008</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.073215033924773</v>
+        <v>1.055030118787246</v>
       </c>
       <c r="D7">
-        <v>1.077938350116273</v>
+        <v>1.070108235742958</v>
       </c>
       <c r="E7">
-        <v>1.067100348218803</v>
+        <v>1.051633336740849</v>
       </c>
       <c r="F7">
-        <v>1.087062419646488</v>
+        <v>1.075637498896981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063551082432213</v>
+        <v>1.077154312258638</v>
       </c>
       <c r="J7">
-        <v>1.07757333355714</v>
+        <v>1.073118107618839</v>
       </c>
       <c r="K7">
-        <v>1.080320025628202</v>
+        <v>1.079425465756489</v>
       </c>
       <c r="L7">
-        <v>1.069507457694837</v>
+        <v>1.061143302934153</v>
       </c>
       <c r="M7">
-        <v>1.089423104657352</v>
+        <v>1.084898612971431</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071418312319542</v>
+        <v>1.045867061604435</v>
       </c>
       <c r="D8">
-        <v>1.076445451072666</v>
+        <v>1.062545541136831</v>
       </c>
       <c r="E8">
-        <v>1.065516918566541</v>
+        <v>1.043644955124409</v>
       </c>
       <c r="F8">
-        <v>1.085395443549038</v>
+        <v>1.067390772434294</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062843416922727</v>
+        <v>1.072914351722912</v>
       </c>
       <c r="J8">
-        <v>1.076229115886993</v>
+        <v>1.066223548709645</v>
       </c>
       <c r="K8">
-        <v>1.079068535129871</v>
+        <v>1.072940049609776</v>
       </c>
       <c r="L8">
-        <v>1.068168424792614</v>
+        <v>1.054264482761671</v>
       </c>
       <c r="M8">
-        <v>1.08799571066357</v>
+        <v>1.077729181804695</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.068240877960936</v>
+        <v>1.028598922518595</v>
       </c>
       <c r="D9">
-        <v>1.07380510375021</v>
+        <v>1.04831845882674</v>
       </c>
       <c r="E9">
-        <v>1.062712699032933</v>
+        <v>1.028585300379117</v>
       </c>
       <c r="F9">
-        <v>1.082450397870893</v>
+        <v>1.051901331091813</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061581052946451</v>
+        <v>1.064831561909072</v>
       </c>
       <c r="J9">
-        <v>1.073845301376757</v>
+        <v>1.053180682395716</v>
       </c>
       <c r="K9">
-        <v>1.076849095439671</v>
+        <v>1.060673394790075</v>
       </c>
       <c r="L9">
-        <v>1.065790530059978</v>
+        <v>1.041231021227515</v>
       </c>
       <c r="M9">
-        <v>1.085468539376886</v>
+        <v>1.064204951452</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.066114562561245</v>
+        <v>1.016198254346125</v>
       </c>
       <c r="D10">
-        <v>1.072038104032135</v>
+        <v>1.038124585860241</v>
       </c>
       <c r="E10">
-        <v>1.060833469181776</v>
+        <v>1.017771402765776</v>
       </c>
       <c r="F10">
-        <v>1.080481618091812</v>
+        <v>1.040819232602093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060728979362916</v>
+        <v>1.058967176795948</v>
       </c>
       <c r="J10">
-        <v>1.072245633443682</v>
+        <v>1.0437836173093</v>
       </c>
       <c r="K10">
-        <v>1.075359698263003</v>
+        <v>1.051837995519409</v>
       </c>
       <c r="L10">
-        <v>1.064192625556582</v>
+        <v>1.031827035044813</v>
       </c>
       <c r="M10">
-        <v>1.083775470831689</v>
+        <v>1.054488622983152</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.065191857140124</v>
+        <v>1.010582785774016</v>
       </c>
       <c r="D11">
-        <v>1.071271308054801</v>
+        <v>1.03351536949485</v>
       </c>
       <c r="E11">
-        <v>1.060017355716843</v>
+        <v>1.012875805160216</v>
       </c>
       <c r="F11">
-        <v>1.0796277643609</v>
+        <v>1.035812173700466</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060357494890998</v>
+        <v>1.056298102685801</v>
       </c>
       <c r="J11">
-        <v>1.071550415009402</v>
+        <v>1.039521840660363</v>
       </c>
       <c r="K11">
-        <v>1.074712398066149</v>
+        <v>1.047831752902213</v>
       </c>
       <c r="L11">
-        <v>1.063497648373693</v>
+        <v>1.027558920168991</v>
       </c>
       <c r="M11">
-        <v>1.083040326337599</v>
+        <v>1.050088915049606</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.064848815960367</v>
+        <v>1.00845655831343</v>
       </c>
       <c r="D12">
-        <v>1.070986229187464</v>
+        <v>1.031771331323769</v>
       </c>
       <c r="E12">
-        <v>1.059713848654372</v>
+        <v>1.011022456795904</v>
       </c>
       <c r="F12">
-        <v>1.079310395122609</v>
+        <v>1.033918158282749</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060219125481587</v>
+        <v>1.055285540805468</v>
       </c>
       <c r="J12">
-        <v>1.071291790966704</v>
+        <v>1.037907283927836</v>
       </c>
       <c r="K12">
-        <v>1.074471599150723</v>
+        <v>1.046314147073202</v>
       </c>
       <c r="L12">
-        <v>1.063239035076239</v>
+        <v>1.025941487426419</v>
       </c>
       <c r="M12">
-        <v>1.082766949878216</v>
+        <v>1.048423165268473</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064922413481802</v>
+        <v>1.008914529421308</v>
       </c>
       <c r="D13">
-        <v>1.071047391273714</v>
+        <v>1.03214692625096</v>
       </c>
       <c r="E13">
-        <v>1.059778968623903</v>
+        <v>1.011421636251164</v>
       </c>
       <c r="F13">
-        <v>1.079378481494882</v>
+        <v>1.034326027136871</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060248823598408</v>
+        <v>1.055503724667576</v>
       </c>
       <c r="J13">
-        <v>1.071347284393501</v>
+        <v>1.038255084238698</v>
       </c>
       <c r="K13">
-        <v>1.074523267834076</v>
+        <v>1.046641055852159</v>
       </c>
       <c r="L13">
-        <v>1.063294529773325</v>
+        <v>1.02628992859219</v>
       </c>
       <c r="M13">
-        <v>1.082825604219767</v>
+        <v>1.048781944909736</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.065163507560497</v>
+        <v>1.010407876671626</v>
       </c>
       <c r="D14">
-        <v>1.071247748614001</v>
+        <v>1.033371875410205</v>
       </c>
       <c r="E14">
-        <v>1.059992275235784</v>
+        <v>1.012723336874261</v>
       </c>
       <c r="F14">
-        <v>1.079601534836914</v>
+        <v>1.035656328670347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.06034606507555</v>
+        <v>1.056214845751877</v>
       </c>
       <c r="J14">
-        <v>1.071529045032601</v>
+        <v>1.039389040453279</v>
       </c>
       <c r="K14">
-        <v>1.074692500982908</v>
+        <v>1.04770692405322</v>
       </c>
       <c r="L14">
-        <v>1.06347628089622</v>
+        <v>1.027425892991881</v>
       </c>
       <c r="M14">
-        <v>1.083017735331014</v>
+        <v>1.049951882410909</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.065312012639562</v>
+        <v>1.011322514101362</v>
       </c>
       <c r="D15">
-        <v>1.071371161210006</v>
+        <v>1.034122285946256</v>
       </c>
       <c r="E15">
-        <v>1.060123651763262</v>
+        <v>1.013520639671733</v>
       </c>
       <c r="F15">
-        <v>1.079738937369988</v>
+        <v>1.036471351840166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060405927838091</v>
+        <v>1.056650135435419</v>
       </c>
       <c r="J15">
-        <v>1.071640982051737</v>
+        <v>1.040083445808258</v>
       </c>
       <c r="K15">
-        <v>1.074796722885693</v>
+        <v>1.048359653531622</v>
       </c>
       <c r="L15">
-        <v>1.063588201589801</v>
+        <v>1.028121465910049</v>
       </c>
       <c r="M15">
-        <v>1.083136072269438</v>
+        <v>1.050668462252703</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06617575678823</v>
+        <v>1.016565469201799</v>
       </c>
       <c r="D16">
-        <v>1.072088958048185</v>
+        <v>1.038426153519672</v>
       </c>
       <c r="E16">
-        <v>1.060887580946484</v>
+        <v>1.018091579111688</v>
       </c>
       <c r="F16">
-        <v>1.080538256426921</v>
+        <v>1.041146907384205</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060753579959093</v>
+        <v>1.059141444080665</v>
       </c>
       <c r="J16">
-        <v>1.072291718563556</v>
+        <v>1.044062182761754</v>
       </c>
       <c r="K16">
-        <v>1.075402606844057</v>
+        <v>1.052099876772594</v>
       </c>
       <c r="L16">
-        <v>1.06423868362709</v>
+        <v>1.032105949096628</v>
       </c>
       <c r="M16">
-        <v>1.083824216624742</v>
+        <v>1.05477634852234</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.066717020926362</v>
+        <v>1.019786101687122</v>
       </c>
       <c r="D17">
-        <v>1.072538761295078</v>
+        <v>1.041071829721835</v>
       </c>
       <c r="E17">
-        <v>1.061366127927159</v>
+        <v>1.02089982482561</v>
       </c>
       <c r="F17">
-        <v>1.081039280234531</v>
+        <v>1.044022048430863</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060970973021195</v>
+        <v>1.060668331946176</v>
       </c>
       <c r="J17">
-        <v>1.072699221288857</v>
+        <v>1.046504603279302</v>
       </c>
       <c r="K17">
-        <v>1.075782020742053</v>
+        <v>1.054396105980439</v>
       </c>
       <c r="L17">
-        <v>1.064645886608839</v>
+        <v>1.034551066036869</v>
       </c>
       <c r="M17">
-        <v>1.0842553228807</v>
+        <v>1.057299860065356</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.067032538972875</v>
+        <v>1.02164117150901</v>
       </c>
       <c r="D18">
-        <v>1.072800962816099</v>
+        <v>1.04259636877916</v>
       </c>
       <c r="E18">
-        <v>1.061645025683792</v>
+        <v>1.022517478343891</v>
       </c>
       <c r="F18">
-        <v>1.081331388203751</v>
+        <v>1.045679169142056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061097530736168</v>
+        <v>1.061546542300068</v>
       </c>
       <c r="J18">
-        <v>1.072936664916769</v>
+        <v>1.047910815290787</v>
       </c>
       <c r="K18">
-        <v>1.076003097021784</v>
+        <v>1.055718223181987</v>
       </c>
       <c r="L18">
-        <v>1.064883105031118</v>
+        <v>1.03595852984212</v>
       </c>
       <c r="M18">
-        <v>1.084506583918807</v>
+        <v>1.058753401580718</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067140090097916</v>
+        <v>1.022269819094567</v>
       </c>
       <c r="D19">
-        <v>1.07289033959199</v>
+        <v>1.04311311067554</v>
       </c>
       <c r="E19">
-        <v>1.06174008369116</v>
+        <v>1.02306568683632</v>
       </c>
       <c r="F19">
-        <v>1.081430967469712</v>
+        <v>1.046240910041147</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061140642361984</v>
+        <v>1.0618439334364</v>
       </c>
       <c r="J19">
-        <v>1.07301758553155</v>
+        <v>1.048387247650417</v>
       </c>
       <c r="K19">
-        <v>1.076078439556293</v>
+        <v>1.056166175725549</v>
       </c>
       <c r="L19">
-        <v>1.064963940324808</v>
+        <v>1.03643533516158</v>
       </c>
       <c r="M19">
-        <v>1.084592224365453</v>
+        <v>1.059245977439556</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066658968338158</v>
+        <v>1.019443009510147</v>
       </c>
       <c r="D20">
-        <v>1.072490518366787</v>
+        <v>1.040789919686791</v>
       </c>
       <c r="E20">
-        <v>1.061314808265241</v>
+        <v>1.020600651123416</v>
       </c>
       <c r="F20">
-        <v>1.080985538687892</v>
+        <v>1.043715650902905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060947674063613</v>
+        <v>1.060505804958965</v>
       </c>
       <c r="J20">
-        <v>1.072655525570932</v>
+        <v>1.046244476573419</v>
       </c>
       <c r="K20">
-        <v>1.075741336989925</v>
+        <v>1.054151541328639</v>
       </c>
       <c r="L20">
-        <v>1.064602228263493</v>
+        <v>1.034290683369048</v>
       </c>
       <c r="M20">
-        <v>1.084209089567401</v>
+        <v>1.057031029952479</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.065092519905397</v>
+        <v>1.009969268088994</v>
       </c>
       <c r="D21">
-        <v>1.071188755499872</v>
+        <v>1.033012063849916</v>
       </c>
       <c r="E21">
-        <v>1.059929471915464</v>
+        <v>1.012341007082329</v>
       </c>
       <c r="F21">
-        <v>1.07953585702909</v>
+        <v>1.035265556056524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060317440498178</v>
+        <v>1.05600603647237</v>
       </c>
       <c r="J21">
-        <v>1.071475531837091</v>
+        <v>1.039056011720597</v>
       </c>
       <c r="K21">
-        <v>1.074642676094226</v>
+        <v>1.047393887809091</v>
       </c>
       <c r="L21">
-        <v>1.063422772683249</v>
+        <v>1.027092287466123</v>
       </c>
       <c r="M21">
-        <v>1.082961166137733</v>
+        <v>1.049608257007189</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064105849991593</v>
+        <v>1.003777003580032</v>
       </c>
       <c r="D22">
-        <v>1.070368797687291</v>
+        <v>1.027935283204807</v>
       </c>
       <c r="E22">
-        <v>1.059056334123167</v>
+        <v>1.006944177686464</v>
       </c>
       <c r="F22">
-        <v>1.078623167075516</v>
+        <v>1.029753252912139</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059918966976646</v>
+        <v>1.053053511997764</v>
       </c>
       <c r="J22">
-        <v>1.070731369727903</v>
+        <v>1.034352310528179</v>
       </c>
       <c r="K22">
-        <v>1.073949802812788</v>
+        <v>1.042972932411237</v>
       </c>
       <c r="L22">
-        <v>1.06267849244174</v>
+        <v>1.022379312934296</v>
       </c>
       <c r="M22">
-        <v>1.082174744746366</v>
+        <v>1.044757470280499</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06462907370791</v>
+        <v>1.007083258845493</v>
       </c>
       <c r="D23">
-        <v>1.07080361564111</v>
+        <v>1.030645235418493</v>
       </c>
       <c r="E23">
-        <v>1.059519404271737</v>
+        <v>1.009825507969559</v>
       </c>
       <c r="F23">
-        <v>1.079107118631064</v>
+        <v>1.032695381010589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060130416925207</v>
+        <v>1.054631001921479</v>
       </c>
       <c r="J23">
-        <v>1.071126079601026</v>
+        <v>1.036864225765486</v>
       </c>
       <c r="K23">
-        <v>1.07431730893981</v>
+        <v>1.045333765655092</v>
       </c>
       <c r="L23">
-        <v>1.063073308340393</v>
+        <v>1.024896438253996</v>
       </c>
       <c r="M23">
-        <v>1.082591814258137</v>
+        <v>1.047347338130564</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06668520039716</v>
+        <v>1.019598110372295</v>
       </c>
       <c r="D24">
-        <v>1.072512317766928</v>
+        <v>1.040917360101607</v>
       </c>
       <c r="E24">
-        <v>1.061337998123501</v>
+        <v>1.020735897511164</v>
       </c>
       <c r="F24">
-        <v>1.081009822583139</v>
+        <v>1.043854160043836</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060958202613276</v>
+        <v>1.060579282097854</v>
       </c>
       <c r="J24">
-        <v>1.072675270544139</v>
+        <v>1.046362073337687</v>
       </c>
       <c r="K24">
-        <v>1.075759720934846</v>
+        <v>1.054262102649507</v>
       </c>
       <c r="L24">
-        <v>1.064621956505238</v>
+        <v>1.034408396781917</v>
       </c>
       <c r="M24">
-        <v>1.084229981016673</v>
+        <v>1.057152559317176</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069063707975155</v>
+        <v>1.033209003734889</v>
       </c>
       <c r="D25">
-        <v>1.074488870017843</v>
+        <v>1.052113209830633</v>
       </c>
       <c r="E25">
-        <v>1.063439351369603</v>
+        <v>1.032605979658787</v>
       </c>
       <c r="F25">
-        <v>1.083212695830281</v>
+        <v>1.056029989574352</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061909242346292</v>
+        <v>1.066999849995612</v>
       </c>
       <c r="J25">
-        <v>1.074463396906063</v>
+        <v>1.056668205040447</v>
       </c>
       <c r="K25">
-        <v>1.077424577174966</v>
+        <v>1.06395302413131</v>
       </c>
       <c r="L25">
-        <v>1.066407478462817</v>
+        <v>1.044718370012649</v>
       </c>
       <c r="M25">
-        <v>1.086123314369631</v>
+        <v>1.067816601496059</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
